--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.328</v>
+        <v>16.639</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.176</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.053</v>
+        <v>16.443</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.38</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.666</v>
+        <v>7.987</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.53370463026666</v>
+        <v>10.61178793167871</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.02063754854047</v>
+        <v>11.01466648225574</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.1045550629414</v>
+        <v>11.69170102920482</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.69623896809294</v>
+        <v>7.419422428759219</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.94949415077325</v>
+        <v>17.7407842405108</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.04450101031701</v>
+        <v>20.69247082838394</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.47835863279443</v>
+        <v>27.07184606964564</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.60313604479394</v>
+        <v>30.23886118106901</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.1081965214911</v>
+        <v>22.06536247373908</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.48168097222466</v>
+        <v>38.08986339397282</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.35218826382696</v>
+        <v>20.29339243683386</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.77424337446854</v>
+        <v>25.53527065317266</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.90437889700213</v>
+        <v>28.63270643421638</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.4014675061992</v>
+        <v>19.03311611613601</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.79291270352084</v>
+        <v>37.20458119343164</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.37578049168187</v>
+        <v>21.08307827248812</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.83455165227619</v>
+        <v>21.24109111514183</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.947419355656</v>
+        <v>23.62658261499131</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.47705131095921</v>
+        <v>15.23988769797731</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.8109985119798</v>
+        <v>35.83077307163573</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.92532022367615</v>
+        <v>22.1037312727651</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37.26945494943733</v>
+        <v>23.69219030288782</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.84061775753526</v>
+        <v>16.30970536963171</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.5782030106522</v>
+        <v>21.48434500899412</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.04788344928123</v>
+        <v>28.79563615304589</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.69423034842944</v>
+        <v>30.79002784738689</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.55197152484058</v>
+        <v>21.05187366586511</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.40384599173549</v>
+        <v>47.31791338948402</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.78933405427203</v>
+        <v>52.17038115667219</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.2742382827515</v>
+        <v>41.10140782106178</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.15310926253933</v>
+        <v>46.99450628198558</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.56810461746534</v>
+        <v>61.45065320579261</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.25647312914855</v>
+        <v>67.45690419572199</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.02680885089548</v>
+        <v>54.02902678585218</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.70255707920118</v>
+        <v>45.28762211113859</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.09324855895785</v>
+        <v>50.13568317552947</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.57046254006906</v>
+        <v>38.47535039691663</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.4760573165107</v>
+        <v>47.73768182861849</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.87732286733745</v>
+        <v>61.84766796930861</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>46.57092150957139</v>
+        <v>68.07631981028665</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.3334883340731</v>
+        <v>53.69853084967076</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33.75851934119422</v>
+        <v>38.76052436416439</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.13210418567537</v>
+        <v>42.81320374233805</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.64167213966439</v>
+        <v>33.01909835065844</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.48460268566608</v>
+        <v>47.92656273771068</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.92499590176135</v>
+        <v>56.71762155362683</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>45.60164989542696</v>
+        <v>61.97234240585917</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.39573707256223</v>
+        <v>47.8304275979399</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.46455175712256</v>
+        <v>36.03254996040242</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.56958482690185</v>
+        <v>33.4209809166317</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.04962649491418</v>
+        <v>37.88547295891492</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.77993961199999</v>
+        <v>23.79011927222502</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.7550003080727</v>
+        <v>26.63678404524327</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.93852248804715</v>
+        <v>44.54999973279597</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.99246411250128</v>
+        <v>47.35499884003335</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.51334259277374</v>
+        <v>54.09111514720334</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>27.15859547847056</v>
+        <v>36.36323560568592</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.24810804144</v>
+        <v>44.36124458605283</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.23599427185385</v>
+        <v>43.02003695417587</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.27872451648378</v>
+        <v>44.77146904014734</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.80467597068954</v>
+        <v>51.32032931570807</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.44297071208283</v>
+        <v>32.34738158493295</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.54946923654072</v>
+        <v>42.55023293434158</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.29109184595906</v>
+        <v>45.79559793795433</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.36882678684132</v>
+        <v>43.03850969763366</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.87824482074824</v>
+        <v>48.99725177641261</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.5466002568682</v>
+        <v>31.24952716334854</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.59843730810964</v>
+        <v>41.2092284157391</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.39047647525319</v>
+        <v>30.36015236877062</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.10551156267048</v>
+        <v>34.4223017090216</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.88384000776898</v>
+        <v>22.21533075844015</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>40.90540212523632</v>
+        <v>31.43200111944341</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>45.01905349609203</v>
+        <v>36.52706476980443</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>50.03417935600738</v>
+        <v>41.11814183574656</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.08922790335188</v>
+        <v>26.01229780412059</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.8318653046217</v>
+        <v>52.32198617127882</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.58813651970866</v>
+        <v>59.32811535413401</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.28189236849746</v>
+        <v>43.77274164412561</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.44174848115938</v>
+        <v>52.12724555077074</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.50269595150052</v>
+        <v>63.71761495100931</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>51.55972741391842</v>
+        <v>71.97592112125123</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.52904393927599</v>
+        <v>53.55305989946908</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.12125664212586</v>
+        <v>49.44487585741271</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.88244414217266</v>
+        <v>56.31226858376978</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.5694827858599</v>
+        <v>40.35930368650463</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.75413815827577</v>
+        <v>51.5366396807451</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>46.80192058813578</v>
+        <v>62.99183248551607</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>51.86389759634828</v>
+        <v>71.345555179139</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38.82644368102843</v>
+        <v>52.21019051339564</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.20648438670943</v>
+        <v>43.63565685965212</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.95131025145299</v>
+        <v>49.83672822315086</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.66825555768192</v>
+        <v>35.90487439476206</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.79388871250131</v>
+        <v>53.07170152868645</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>45.87915581912769</v>
+        <v>60.15526530625415</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50.92492897376356</v>
+        <v>67.72001649677951</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.91655757294805</v>
+        <v>49.06566322361665</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.63957201844946</v>
+        <v>27.79525309676415</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.85117596174354</v>
+        <v>28.50194298097711</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.31007083127342</v>
+        <v>31.59210960788338</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.09451698232763</v>
+        <v>20.13937452958812</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.47632450021435</v>
+        <v>26.74013173956882</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.1223811218891</v>
+        <v>38.81351498468328</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34.28263108628961</v>
+        <v>44.73032286746898</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.78256156641031</v>
+        <v>50.14393728084497</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.4815015264949</v>
+        <v>34.76393867794455</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>34.97877851179279</v>
+        <v>45.58613237774205</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.42283264464534</v>
+        <v>38.16765487670266</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.57168407044771</v>
+        <v>42.91246706689812</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39.07676715440736</v>
+        <v>48.20467914226479</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.768537643103</v>
+        <v>31.41767358005587</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.28289248181282</v>
+        <v>44.69584955606129</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.47096599987734</v>
+        <v>40.02628747170736</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.6551926261988</v>
+        <v>40.35069032079918</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.14359141966791</v>
+        <v>45.1196838461978</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.86578629540145</v>
+        <v>29.52657670309739</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.32555616324594</v>
+        <v>43.48463670110634</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.17297497853599</v>
+        <v>32.76292717633569</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>41.87675520998667</v>
+        <v>36.38892468575903</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.67808636256582</v>
+        <v>25.16830920244745</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.46171300905926</v>
+        <v>29.23383477350245</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>44.65021677861068</v>
+        <v>36.48470486990725</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.65482856858762</v>
+        <v>40.7475944633582</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.73315019654831</v>
+        <v>26.70626066706318</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>38.62340093283912</v>
+        <v>55.64159830608546</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.36862158740162</v>
+        <v>62.2709896523037</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.08492724159806</v>
+        <v>47.42387459033525</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.00713175898717</v>
+        <v>51.51554550399472</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.14263787680673</v>
+        <v>65.02526542664688</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.18936193354939</v>
+        <v>73.00727722180787</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.1814930752588</v>
+        <v>55.37434506124627</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>38.91538089394759</v>
+        <v>53.55066118167569</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>43.6655934923298</v>
+        <v>60.11924163667308</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.37499099450567</v>
+        <v>44.68217897994091</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.32221037641559</v>
+        <v>52.0531375513762</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.44438902329387</v>
+        <v>65.3113549200913</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.49613077187335</v>
+        <v>73.46907303435063</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.48131088189582</v>
+        <v>54.92993609438335</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37.99462249604187</v>
+        <v>47.86814618550718</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.72833695234048</v>
+        <v>53.86341053678333</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.46795168277988</v>
+        <v>40.30506612570746</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41.35552227520323</v>
+        <v>53.91972643893509</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.51551640217805</v>
+        <v>62.85367282222502</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50.55091718884012</v>
+        <v>70.34124034508866</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.56549621671697</v>
+        <v>52.10819504236859</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.19143178624412</v>
+        <v>11.38177003843471</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.96521479653168</v>
+        <v>14.91542638162922</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.90876303954376</v>
+        <v>15.89310420290277</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.91935916033746</v>
+        <v>13.98183102456667</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.39064281168515</v>
+        <v>16.01400442505523</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>20.67262584212769</v>
+        <v>22.34925892242704</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>24.39428406714117</v>
+        <v>31.79803588236599</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.37796098426325</v>
+        <v>35.16889394890472</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>17.30337400608878</v>
+        <v>29.38073952440522</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24.8921545839079</v>
+        <v>36.90383678715865</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.98117625543495</v>
+        <v>22.59937029754056</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.69084268519075</v>
+        <v>30.9129154450662</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.67985905341064</v>
+        <v>34.20726829200369</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.59716100528721</v>
+        <v>26.99558786593239</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.20412235662174</v>
+        <v>36.27315149589034</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20.01326455020694</v>
+        <v>22.80828380669537</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>23.75958817179834</v>
+        <v>26.03106314184917</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.73152895072907</v>
+        <v>28.66273833435858</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.68124296789629</v>
+        <v>22.70016544376318</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.23098760709286</v>
+        <v>33.43778984389621</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.64454622603346</v>
+        <v>20.69475981852507</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.83854141570917</v>
+        <v>22.17856244824026</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20.83421158843095</v>
+        <v>16.3666467475712</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.41978013109015</v>
+        <v>19.79260911010608</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.14755069974994</v>
+        <v>27.339742798472</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.6461799720078</v>
+        <v>29.08264621400032</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.91286732420424</v>
+        <v>20.96014844260283</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.09339992608795</v>
+        <v>46.36666378801225</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.32798416156057</v>
+        <v>50.97931242982386</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22.23888147267308</v>
+        <v>41.43658807355512</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.9643774733297</v>
+        <v>45.66693627675957</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.6384804196687</v>
+        <v>60.28970977011647</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>41.17837105999983</v>
+        <v>65.85718418188793</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.35910145597946</v>
+        <v>54.02299873182443</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.39267875658586</v>
+        <v>44.61511489207692</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.63245160686748</v>
+        <v>49.20874865650842</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.53551879688192</v>
+        <v>39.07111082954626</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.28751511251654</v>
+        <v>46.55886308767108</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.94775463106447</v>
+        <v>60.87244527800908</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>41.49285291890342</v>
+        <v>66.62864926648044</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.66569638193045</v>
+        <v>53.86751770301321</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.45731541722201</v>
+        <v>36.70279989893923</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32.68017802568015</v>
+        <v>40.5686355764567</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.61544582487614</v>
+        <v>32.40186328634954</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.30531334825229</v>
+        <v>45.13674727273224</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.00452752852559</v>
+        <v>54.18695192777203</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.53287734648565</v>
+        <v>59.05223392144457</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.73709005241547</v>
+        <v>46.68295227397223</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.95024538165682</v>
+        <v>24.58795441468659</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.19623012115539</v>
+        <v>21.78715774319342</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.3895574902275</v>
+        <v>24.4890052591002</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.65612992433859</v>
+        <v>13.03741160372169</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.51969106371583</v>
+        <v>28.12684137031539</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.44667834171137</v>
+        <v>37.45289012782152</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.63971835086052</v>
+        <v>40.38990584165522</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.87380304543152</v>
+        <v>45.61479913552336</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.05382347262235</v>
+        <v>29.80247920000429</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.03724385910711</v>
+        <v>49.00947919927586</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.75158240309732</v>
+        <v>38.07902555303284</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.93292956726684</v>
+        <v>39.88348271728162</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.17228283831398</v>
+        <v>45.08035661954467</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.34453572899705</v>
+        <v>27.75506289729315</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.34543243008685</v>
+        <v>48.83301604440055</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.78843511521928</v>
+        <v>39.14520525240177</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.00601174320559</v>
+        <v>35.88348028113825</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.22835856553877</v>
+        <v>40.4345743303511</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.43251997760353</v>
+        <v>24.44749940639758</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>32.37718135903845</v>
+        <v>48.40205190589555</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.26340406119307</v>
+        <v>34.50828160015252</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.71077030344579</v>
+        <v>38.05193068193805</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.97556494250015</v>
+        <v>27.01311390562466</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>37.82287883854205</v>
+        <v>27.32064513987421</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.06881917496372</v>
+        <v>35.63112420764033</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.8069107143901</v>
+        <v>39.15771476127765</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.38657510065615</v>
+        <v>26.24886949654423</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.7274478732238</v>
+        <v>60.26435232956635</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.21602576758515</v>
+        <v>67.05506795489001</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.39471182621812</v>
+        <v>52.03070319206568</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>39.38116090611871</v>
+        <v>50.90766669367785</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>43.57267294430066</v>
+        <v>66.44971775194173</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>48.35263293991879</v>
+        <v>73.93664730784795</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.84512976806985</v>
+        <v>57.19667729618214</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>37.02321762297792</v>
+        <v>58.92301783984482</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>41.51690897856066</v>
+        <v>65.75442614978007</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.68810375739835</v>
+        <v>50.02595943616139</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>39.70068907404408</v>
+        <v>51.87838685754787</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>43.87860566821224</v>
+        <v>67.11144436903584</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>48.66370436709764</v>
+        <v>74.84636020785315</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.14864659739236</v>
+        <v>57.11570383433408</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.09236002462593</v>
+        <v>53.25158919500002</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.56922063607773</v>
+        <v>59.40448396780261</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.77211726731657</v>
+        <v>45.58457129270504</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.7235359761172</v>
+        <v>54.31275469653039</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.9400475724501</v>
+        <v>64.11565081974079</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.70846106204125</v>
+        <v>70.99135898248119</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.2242781501791</v>
+        <v>53.50396008595261</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.62246201936583</v>
+        <v>30.92851204595921</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.93525991875814</v>
+        <v>22.53906306292742</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.06887048828785</v>
+        <v>26.00732159825709</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.77399610795685</v>
+        <v>9.291219727301538</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.06936347925611</v>
+        <v>33.5084492365287</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>18.9392124234255</v>
+        <v>39.62548836432752</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.20603923143179</v>
+        <v>36.1871894511532</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.37698617212438</v>
+        <v>41.78918325699509</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>15.00369051502355</v>
+        <v>21.1667820233633</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.40469624535518</v>
+        <v>50.00424288868463</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.22092199552426</v>
+        <v>38.92002737106577</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.47706435378942</v>
+        <v>34.51529003953426</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.65264734981817</v>
+        <v>40.03544020422667</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.2727033210447</v>
+        <v>18.0862026835467</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.68893027830325</v>
+        <v>49.05386600165743</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.34952033570538</v>
+        <v>41.12328312447203</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>21.63798419720912</v>
+        <v>32.30831703211974</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.7985305745288</v>
+        <v>37.35207644251473</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.44626062567525</v>
+        <v>16.55557249256321</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.81380317648808</v>
+        <v>48.7914846916555</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.84819780243915</v>
+        <v>38.75985101026361</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.20889018995236</v>
+        <v>43.98500056329892</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.95925571161771</v>
+        <v>29.76470758451615</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>27.80712989870205</v>
+        <v>32.75045875725725</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.05742225367947</v>
+        <v>39.00494312773983</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.67275339226507</v>
+        <v>44.02894138725152</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.8173410853303</v>
+        <v>28.50873269019064</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.13699711817699</v>
+        <v>59.49888488771039</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.53537467010833</v>
+        <v>67.54827366081817</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>20.20789065255111</v>
+        <v>49.81918681313896</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.17959115467453</v>
+        <v>52.15428133255047</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.38249574128366</v>
+        <v>64.7292472941519</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>38.03612332248745</v>
+        <v>73.23737546353679</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.10193194516341</v>
+        <v>54.39249751465583</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.40985936556792</v>
+        <v>57.50420993818445</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.81272344403904</v>
+        <v>65.53697664333649</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.47883488820152</v>
+        <v>47.20189849483088</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.47414629860292</v>
+        <v>52.62455865868213</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.66458144416127</v>
+        <v>65.01139770814217</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.32272742706262</v>
+        <v>73.71588257600325</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.38208429347855</v>
+        <v>54.01733181699251</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.5681615368967</v>
+        <v>52.6117362780293</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.95618069270063</v>
+        <v>60.12733459964635</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.64975257127071</v>
+        <v>43.4514219773414</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.59073535971186</v>
+        <v>55.48655824424431</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.81574259295945</v>
+        <v>63.21234027711968</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.45914867013967</v>
+        <v>71.26425587618529</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.54523798510169</v>
+        <v>51.71374845017436</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>11.36337339216183</v>
+        <v>8.234321836422318</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.29393125254524</v>
+        <v>9.508209584700806</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.05831342118693</v>
+        <v>9.593868087360825</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.710523251128016</v>
+        <v>5.779695168996582</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.7780741250775</v>
+        <v>19.02468521306092</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>12.71576138674114</v>
+        <v>14.54215902273128</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>16.59987465222034</v>
+        <v>20.55169278594478</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>20.40175948511842</v>
+        <v>22.64640000895412</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.975516314517542</v>
+        <v>15.67123194706266</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.14969135491233</v>
+        <v>35.94698025017468</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.00474499492059</v>
+        <v>12.4846302991958</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.87783647855168</v>
+        <v>17.37490810300724</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.68465586000607</v>
+        <v>19.31251228504513</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.25114471206649</v>
+        <v>11.14019860626934</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17.44167911028245</v>
+        <v>34.49028615779473</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.10006171359679</v>
+        <v>13.64006600052708</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.00679350070814</v>
+        <v>14.23215859329278</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.79781876111688</v>
+        <v>15.67151857811748</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>9.393701678670155</v>
+        <v>8.288518717450117</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.5329471143945</v>
+        <v>33.31177523168716</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>20.11433051743897</v>
+        <v>22.30281020573679</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.12878962693588</v>
+        <v>24.26418539412312</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>13.74815849907819</v>
+        <v>16.3642399047643</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.12437357106706</v>
+        <v>21.62811820328502</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.91762673137795</v>
+        <v>28.37295313039244</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.21711667368393</v>
+        <v>31.02387029582765</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.16198751107512</v>
+        <v>21.34519348470609</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>21.43885932577903</v>
+        <v>42.84100952297898</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.49127472727046</v>
+        <v>47.59939567871474</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>15.03254108076253</v>
+        <v>36.53071458340796</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.53819705618496</v>
+        <v>45.44892565737842</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.28324330682574</v>
+        <v>57.84311512953131</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>32.62134607347954</v>
+        <v>64.00265089758528</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.48692963410419</v>
+        <v>51.10173724570669</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.7191789301499</v>
+        <v>40.21262964287677</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.77637880761484</v>
+        <v>44.87956194462281</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.31064785464241</v>
+        <v>33.34444134909298</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>23.84149596581037</v>
+        <v>46.38649647246111</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.57369877230425</v>
+        <v>58.38066781558654</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.91662127440773</v>
+        <v>64.6878317714359</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>21.77512092941893</v>
+        <v>50.93044105611197</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.84513570858741</v>
+        <v>34.61881571540056</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.8867056720199</v>
+        <v>38.6448564380676</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.45015626767986</v>
+        <v>28.63481685531087</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.92242524208798</v>
+        <v>46.92273192237577</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.69059646919501</v>
+        <v>54.5030178450403</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.01802847143992</v>
+        <v>60.07671943364991</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>20.90499220014662</v>
+        <v>46.28586628472266</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.733127523268571</v>
+        <v>4.795651957012218</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>12.04375574459053</v>
+        <v>2.81697277593042</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>15.95199069336556</v>
+        <v>2.730181673671485</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5.214243858866752</v>
+        <v>-1.623786103713385</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>11.8842549776504</v>
+        <v>4.416565793523183</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>9.157925175353192</v>
+        <v>12.89654949925298</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.41849831013699</v>
+        <v>16.34488064812</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.36609694687858</v>
+        <v>18.52077538991648</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>6.545096497851524</v>
+        <v>10.28781766114305</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.32877406749754</v>
+        <v>19.64898116149996</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>9.466436969427029</v>
+        <v>12.70687766259854</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>13.71487512880574</v>
+        <v>14.98597402882211</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.66765279245006</v>
+        <v>17.07619779194103</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>6.838699676953368</v>
+        <v>7.412951154275589</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>13.64058150807457</v>
+        <v>18.62372168829486</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>8.512393361580244</v>
+        <v>13.40093399920728</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>12.79725308674929</v>
+        <v>11.04822257971046</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>16.73333798598366</v>
+        <v>12.55158213996591</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>5.936092553280083</v>
+        <v>4.165691461617161</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.68154833715764</v>
+        <v>17.89248809330581</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16.68051785313521</v>
+        <v>7.132028591465847</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.82237330010992</v>
+        <v>7.049678674153743</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.09667875644809</v>
+        <v>1.485304026597035</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.587450921376</v>
+        <v>9.303112059086342</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.84448463843106</v>
+        <v>13.42032982632812</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.27390412417745</v>
+        <v>13.53716329925827</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.86297223468023</v>
+        <v>4.809420805135982</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.07448155729494</v>
+        <v>26.82672495327719</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.25611414487115</v>
+        <v>29.6790643164565</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.44762063786681</v>
+        <v>20.53470048014016</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.07221663036364</v>
+        <v>29.03000275005742</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.27776998319386</v>
+        <v>39.91283267350001</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.74760372129968</v>
+        <v>43.69895182107042</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.2528031749404</v>
+        <v>31.43584065244425</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.37345597663221</v>
+        <v>24.59966773365633</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.56012418067151</v>
+        <v>27.42789445942081</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11.74394068243529</v>
+        <v>17.6674389209047</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.39458257993559</v>
+        <v>29.39764498626393</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.58618019206872</v>
+        <v>39.96021769358821</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.06106647006696</v>
+        <v>43.93154632714902</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.55852468937455</v>
+        <v>30.75834963233646</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.45194869302023</v>
+        <v>19.1097204131616</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.62208890795738</v>
+        <v>21.33779289310395</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.83742163773447</v>
+        <v>13.49332185996279</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.42758501483388</v>
+        <v>30.85368308954565</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.65784237387819</v>
+        <v>36.52353213353676</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.11635017604689</v>
+        <v>39.70181824225764</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.64451160134211</v>
+        <v>26.86794516114666</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.75862902352731</v>
+        <v>40.04998107591201</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.94398955721595</v>
+        <v>36.03150891758347</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.43131208780474</v>
+        <v>39.80988588872859</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.46609147787242</v>
+        <v>26.30855504719611</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.89817240908758</v>
+        <v>22.43320149659623</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.15749009014866</v>
+        <v>49.33421132714227</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.29514908482883</v>
+        <v>50.83692058199696</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.82181281601186</v>
+        <v>56.9297819958629</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.77490561611334</v>
+        <v>39.83346299360454</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.31556620304809</v>
+        <v>39.62533691933412</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.44465238741248</v>
+        <v>47.8059808552113</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.57159122217679</v>
+        <v>48.32094053467013</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.10301283549977</v>
+        <v>54.33124875088858</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.04944052778693</v>
+        <v>35.8589107865776</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.60689538812128</v>
+        <v>38.76868809575001</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.53961700996758</v>
+        <v>48.63366572240412</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.69970022121949</v>
+        <v>44.53483569062584</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.21551222265704</v>
+        <v>49.98576442897635</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.19043280239698</v>
+        <v>32.40558192772289</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.69589870075985</v>
+        <v>37.74203022265019</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.61989154462277</v>
+        <v>26.12012448720156</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.33256006375655</v>
+        <v>30.07293901855398</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.42350658617588</v>
+        <v>18.476241217252</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.75281866375401</v>
+        <v>29.99815188374468</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>39.95543854947014</v>
+        <v>33.96525102825426</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>44.9220394541523</v>
+        <v>38.18379918443107</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.39782906518391</v>
+        <v>24.51990962093424</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>34.98893289438416</v>
+        <v>47.54583545740494</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>39.74131070620075</v>
+        <v>54.44799020331883</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.75108484966079</v>
+        <v>39.58519545165318</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.20762663653373</v>
+        <v>50.22345900826127</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.36103445693595</v>
+        <v>60.47669255460362</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>46.36793593665236</v>
+        <v>68.33620109325859</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.76162418475265</v>
+        <v>51.52040357267972</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.26875744612207</v>
+        <v>45.61235971204167</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>40.02574924035611</v>
+        <v>52.50475565754734</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.02908311151117</v>
+        <v>37.02485951715604</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.50953306306536</v>
+        <v>50.87265777127772</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>41.65030567327436</v>
+        <v>60.91544615402896</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>46.66185935885049</v>
+        <v>69.00051872258339</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.04904301306921</v>
+        <v>51.2623158686582</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.39218665883634</v>
+        <v>40.02166625868374</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.13374306733556</v>
+        <v>46.35340365421064</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.16541597923757</v>
+        <v>32.34554903385368</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.5903372951775</v>
+        <v>53.40839491573979</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>40.76669753936241</v>
+        <v>59.01749697576963</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>45.76293650172268</v>
+        <v>66.43874116223769</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.17769622332538</v>
+        <v>48.61712356713392</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.24116629285252</v>
+        <v>3.631420208255449</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.2603357850646</v>
+        <v>5.406787081949076</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.93238850071542</v>
+        <v>5.156774403840668</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.837408520186109</v>
+        <v>2.592949529571634</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>15.99502823896999</v>
+        <v>8.609080084665463</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.5974994466715</v>
+        <v>12.48173528469398</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.56960597194555</v>
+        <v>18.67909407250853</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.27898255565038</v>
+        <v>20.45171436125413</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>11.10589560307852</v>
+        <v>14.48364453637854</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.36981075919363</v>
+        <v>27.69586683961614</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.88571772446605</v>
+        <v>10.84557824276272</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.84668298484169</v>
+        <v>15.87295507999968</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.56096631461285</v>
+        <v>17.41558377848563</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>11.38067822251003</v>
+        <v>10.37352863271575</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.66098086009452</v>
+        <v>25.03506744725863</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>12.97836144378982</v>
+        <v>10.35734853835846</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.97358847648142</v>
+        <v>11.32123079214082</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.67195890372223</v>
+        <v>12.20781329501065</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.52141838618024</v>
+        <v>6.507393323639601</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.74870953312347</v>
+        <v>19.74134482200084</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.42748930194014</v>
+        <v>10.17685358090171</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.32868134774816</v>
+        <v>10.49102393485578</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.23231028313035</v>
+        <v>4.808371616960716</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.12747435455359</v>
+        <v>15.79424991497143</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.99218782097147</v>
+        <v>20.8166641867704</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.19667367016925</v>
+        <v>21.46413387884781</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.39004428209211</v>
+        <v>13.53003069874806</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.7546658568262</v>
+        <v>32.63249252566801</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.69361898717031</v>
+        <v>35.66800761117707</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.51947838134193</v>
+        <v>26.63747472691453</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.54586791815024</v>
+        <v>41.18983451464251</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.36185798059728</v>
+        <v>51.64526795830753</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.60473784681872</v>
+        <v>55.70034844681599</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.71912162871158</v>
+        <v>44.2588426191244</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.03408820571564</v>
+        <v>28.8282877176453</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.97779800331502</v>
+        <v>31.65125060836223</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.79671131879616</v>
+        <v>22.33536253710082</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.84790012591225</v>
+        <v>40.40693637263373</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.65099354277965</v>
+        <v>50.48786969011726</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>33.89865008562323</v>
+        <v>54.55623822963742</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.00601623793909</v>
+        <v>42.44146976433974</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.15707753012807</v>
+        <v>19.40107507273166</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.08501067737005</v>
+        <v>21.40027412755534</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>14.93352133612119</v>
+        <v>14.24430221567996</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>23.92589511475316</v>
+        <v>36.14877534574772</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.76549327100664</v>
+        <v>42.07611358315003</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>32.99755908696526</v>
+        <v>45.2045299907982</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.13376532778994</v>
+        <v>33.84698696090446</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.22385980424633</v>
+        <v>-1.181547910952524</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.78494337937488</v>
+        <v>-1.787764031430001</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.91889629135886</v>
+        <v>-0.6488180646307562</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.52455251669362</v>
+        <v>-8.248683133111975</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.80008465509607</v>
+        <v>20.47301384163604</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.61852408119562</v>
+        <v>6.930484982918511</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.13084268157569</v>
+        <v>11.17478126451101</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.30370951156833</v>
+        <v>14.37854830506717</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.82802304214455</v>
+        <v>2.984803123429842</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.21436937924329</v>
+        <v>36.96447069468344</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.91238358378379</v>
+        <v>7.080993242815975</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.41334002010911</v>
+        <v>10.18110646035794</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.59117994536091</v>
+        <v>13.25097011802237</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>18.10843193981394</v>
+        <v>0.5093300861982826</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.51084727616602</v>
+        <v>36.26587059856941</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.99730949193647</v>
+        <v>11.06444183246543</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.53271723890069</v>
+        <v>9.904865621951229</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.69456838458937</v>
+        <v>12.54822147581583</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.24115469069657</v>
+        <v>1.057906534542958</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.59160418652684</v>
+        <v>36.02144408345182</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.78101928741938</v>
+        <v>26.08222004871215</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.1529225136119</v>
+        <v>28.98551126734831</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.76350424503321</v>
+        <v>20.01241471107289</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.83512135865084</v>
+        <v>25.22288929006758</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.27671120341766</v>
+        <v>32.93379151644216</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.94773589196923</v>
+        <v>36.53617316934318</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.84125532467748</v>
+        <v>24.49338493420105</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.14591772939653</v>
+        <v>46.53705759753626</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.55712205499569</v>
+        <v>52.22635154671569</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.08683517897376</v>
+        <v>39.71279393242281</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.29159471083459</v>
+        <v>45.63965173910212</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>37.68284819079346</v>
+        <v>59.50893768658258</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>42.39384679805559</v>
+        <v>66.5976299690099</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.20532938540678</v>
+        <v>51.0594810359754</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.43038256238543</v>
+        <v>44.67687655441874</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.84640182965239</v>
+        <v>50.28488157545762</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.36931887213586</v>
+        <v>37.21704515705122</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.59839662339692</v>
+        <v>46.38591452899641</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.97650463260148</v>
+        <v>60.01867586002801</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.69233695004079</v>
+        <v>67.24544363680337</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.49700025077738</v>
+        <v>50.87568676995393</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.54665032842323</v>
+        <v>40.02403434615965</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.94686700801271</v>
+        <v>45.11085137307353</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.49888889675933</v>
+        <v>34.00084360822839</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.6702315561882</v>
+        <v>48.79754087325337</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>37.08502797694656</v>
+        <v>58.1050999573032</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.78520724545437</v>
+        <v>64.70054039032864</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.61818692933715</v>
+        <v>48.77076621376906</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>19.6302147866434</v>
+        <v>8.624725864536842</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.25982924911863</v>
+        <v>10.0927392299962</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.14217524122832</v>
+        <v>10.315830050776</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.30160537192016</v>
+        <v>6.471762382409768</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>22.87456559016537</v>
+        <v>5.109291308276248</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.0362323421929</v>
+        <v>15.32236968950934</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.61702975585871</v>
+        <v>21.6492249138868</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.53790643694196</v>
+        <v>23.74129992612271</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.61656946956521</v>
+        <v>16.62537228227854</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.29818866324597</v>
+        <v>19.16119093073942</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.33073594134979</v>
+        <v>14.17614467447841</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.90014500559052</v>
+        <v>19.31762921335793</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.82612540450159</v>
+        <v>21.20627187271586</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.89739960460724</v>
+        <v>12.85051845245605</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.59614659480895</v>
+        <v>17.1996141549113</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.40707174652176</v>
+        <v>14.40512112081703</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.01107052602069</v>
+        <v>15.21764858791913</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.92085143592281</v>
+        <v>16.70265305250891</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.02210184101202</v>
+        <v>9.399883532406264</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.66729575153272</v>
+        <v>15.04524819535447</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.96654850032946</v>
+        <v>6.212663515495834</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.08543885200921</v>
+        <v>6.171333616822054</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.25988937390798</v>
+        <v>1.853101150136233</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.09553689392967</v>
+        <v>14.50443413365215</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>35.62085619613008</v>
+        <v>19.09001251126121</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>40.06364930460581</v>
+        <v>20.21805948505141</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.44948010345034</v>
+        <v>12.15557899866463</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.34079318155257</v>
+        <v>23.94014805361632</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.49861730144263</v>
+        <v>26.40497764246351</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.59275530946871</v>
+        <v>19.0226041833426</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>32.56599310266846</v>
+        <v>33.26767526011901</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>37.04085084684942</v>
+        <v>43.74298916934566</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>41.52328682822368</v>
+        <v>48.03784164353965</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.82744933325531</v>
+        <v>36.83755072871512</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.62668813085698</v>
+        <v>20.78290862375468</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>32.78946001482484</v>
+        <v>23.08527418931957</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.87646427008446</v>
+        <v>15.25628282033793</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.87448644039037</v>
+        <v>32.81371115323901</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.33611811778638</v>
+        <v>42.98248537618637</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>41.82351726733621</v>
+        <v>47.34066970254312</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.1205168111141</v>
+        <v>35.34082707651773</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.73352512957836</v>
+        <v>14.2708349288333</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.88026975357197</v>
+        <v>16.0956260685003</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>20.99705200232292</v>
+        <v>10.04706583445285</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.93597852991108</v>
+        <v>32.47252999685589</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.43450362348591</v>
+        <v>38.33730592322712</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.90605259822273</v>
+        <v>42.15662034013241</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.23201313959392</v>
+        <v>30.45778147158525</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>9.912284688521822</v>
+        <v>-1.136683333687905</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>14.00099505257887</v>
+        <v>-0.2836717486605238</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.51183420770509</v>
+        <v>-0.9101527680404473</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>7.690924301568124</v>
+        <v>-1.572037220381475</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>13.31350675538448</v>
+        <v>-2.979490424556616</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>11.23855510352661</v>
+        <v>2.604359745340744</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>15.28104039768819</v>
+        <v>7.90754223666363</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>18.82838914492223</v>
+        <v>8.917626428788608</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.930893298598008</v>
+        <v>5.16624627526463</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.65629950055763</v>
+        <v>6.340332678216271</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.52802923418339</v>
+        <v>1.861926877021016</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.55912805776534</v>
+        <v>6.032180318846798</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.1114600989731</v>
+        <v>6.825006283655384</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.206546618297956</v>
+        <v>1.911402754941864</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>14.94861023526811</v>
+        <v>4.212064988323217</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.63540388721896</v>
+        <v>4.808500390921534</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.70037358526953</v>
+        <v>5.064355823198618</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.23704811802656</v>
+        <v>5.546914582489521</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.36139472382952</v>
+        <v>1.731313084850683</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>14.05173538935473</v>
+        <v>5.22002533371834</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.82001564001612</v>
+        <v>-2.511071434329033</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.5542909044531</v>
+        <v>-3.179966556719528</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.74026522125913</v>
+        <v>-4.809166187726206</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.73853822003728</v>
+        <v>7.470219850970466</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.63550095087231</v>
+        <v>11.69809881299771</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.69095087609562</v>
+        <v>12.00582847109447</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.08826418172949</v>
+        <v>6.937019200361625</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.11609882747734</v>
+        <v>10.27399023626875</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.88725526103345</v>
+        <v>11.8458433052188</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.99710506504564</v>
+        <v>7.338396168484159</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.12742134062664</v>
+        <v>21.72722133087388</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.97659303337951</v>
+        <v>31.60708233103731</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.06962524823052</v>
+        <v>34.79561684336551</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.38942755330104</v>
+        <v>26.77513083848658</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.3964170367465</v>
+        <v>7.026051954907672</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.17240693295199</v>
+        <v>8.412828259867743</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.2750966722549</v>
+        <v>3.513942415482553</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.42943917841237</v>
+        <v>21.00279738929165</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.26552150680267</v>
+        <v>30.6292273608917</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.3633939564173</v>
+        <v>33.8413694204682</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.67602901598833</v>
+        <v>25.11455887160611</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.53438774938873</v>
+        <v>4.031200866448913</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.29488970415328</v>
+        <v>5.044781041266994</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.42661693664503</v>
+        <v>1.949648719457734</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.52358741411697</v>
+        <v>23.41212536823837</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.39564529354517</v>
+        <v>29.02271203920543</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.47820315409285</v>
+        <v>31.78006439865685</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.8190930581706</v>
+        <v>23.4799816987103</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>11.4125643168683</v>
+        <v>20.27034691800717</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.64416110688045</v>
+        <v>22.37013203858087</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>19.58709743043273</v>
+        <v>23.70530679632307</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>8.849401081201449</v>
+        <v>19.68562786544133</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>15.22192352189857</v>
+        <v>6.135856099715177</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>12.86454643673034</v>
+        <v>33.32047433316579</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>17.04561590094874</v>
+        <v>41.65322505180381</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.02824468957265</v>
+        <v>45.48596753383706</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>10.2067341862848</v>
+        <v>37.52507781765581</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.6941497904706</v>
+        <v>26.64054065682665</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.17480020751344</v>
+        <v>33.97004185191043</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.34376719283564</v>
+        <v>41.20395634650816</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.3316229884393</v>
+        <v>44.95692635853518</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>10.50206580524527</v>
+        <v>35.57914027813307</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.00816924009865</v>
+        <v>27.00624066072572</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.21087782958228</v>
+        <v>30.43832113272072</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>16.41637112467023</v>
+        <v>32.39202625630661</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>20.3874083204845</v>
+        <v>35.383855229676</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>9.589870955070985</v>
+        <v>27.40708797605852</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>16.03835100736201</v>
+        <v>23.85119328065822</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.93966744298395</v>
+        <v>10.1816247197795</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.12080277530405</v>
+        <v>11.32537316939552</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>13.39340331099361</v>
+        <v>6.651118747017975</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.10251057519719</v>
+        <v>16.17466554681296</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.28073771727466</v>
+        <v>21.91311563999687</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.75973877142176</v>
+        <v>23.46855656789129</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.31823265642781</v>
+        <v>15.33740253936534</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.36082512023341</v>
+        <v>35.81433348154631</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.58210146879534</v>
+        <v>40.15578688969721</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>14.7712793296096</v>
+        <v>31.86012212729509</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>23.61610724948005</v>
+        <v>41.916509355271</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.74229523339464</v>
+        <v>55.0760825210285</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.26208456476796</v>
+        <v>60.56926177362719</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.73602757730823</v>
+        <v>48.79967652773699</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>21.66203827899871</v>
+        <v>35.08878320287567</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.88839963497587</v>
+        <v>39.42387129879046</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>15.06978505994758</v>
+        <v>30.50915931337306</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.94098180944493</v>
+        <v>43.65154397080646</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.05322305188112</v>
+        <v>56.55282446531169</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.57811534958977</v>
+        <v>62.26155950718832</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.04421460736015</v>
+        <v>49.52555409879007</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.72987625222773</v>
+        <v>26.54447067687205</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.93956880640149</v>
+        <v>30.09694838771821</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>14.1528207861482</v>
+        <v>23.08487032612572</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.96276935034933</v>
+        <v>41.57953609038854</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.11383600275635</v>
+        <v>48.95490302795616</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>32.62222448465697</v>
+        <v>53.69720683283029</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.11935208879655</v>
+        <v>41.27856583663694</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.1709129844413</v>
+        <v>32.96187179389366</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.6474225808618</v>
+        <v>33.0149889784923</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.79006044736568</v>
+        <v>36.38428455732013</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>21.42713292554541</v>
+        <v>25.2115736393947</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.34857435169351</v>
+        <v>20.81178703402672</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.59385421782745</v>
+        <v>42.18712326997183</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.02100739385255</v>
+        <v>47.26019035981891</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.2029556937818</v>
+        <v>52.80660501424529</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.75817269291143</v>
+        <v>38.10478313031654</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.79001888227386</v>
+        <v>38.6744940456598</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.88572175093785</v>
+        <v>40.89753945561671</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.30168812777374</v>
+        <v>44.93292204964827</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.48865205886456</v>
+        <v>50.29921893898886</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>23.03684702880207</v>
+        <v>34.39237706186515</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.08555606891375</v>
+        <v>36.9525135927117</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.96174790011219</v>
+        <v>43.0660989351463</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.41236119143607</v>
+        <v>42.81863352017096</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.58309557317151</v>
+        <v>47.59813698852064</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.16103206172154</v>
+        <v>32.91583208314601</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.15562951630826</v>
+        <v>35.42083777523449</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.30655263441514</v>
+        <v>23.03526386418109</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.67789204472397</v>
+        <v>25.8948620220206</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.3450765175338</v>
+        <v>16.14690497363791</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.55632677100952</v>
+        <v>26.16150890334142</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>39.97504120021964</v>
+        <v>30.77220450986308</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.65002540821175</v>
+        <v>34.118920833885</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.58999184695847</v>
+        <v>21.33272432956259</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.69806027399331</v>
+        <v>44.73787532195396</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.10911979039615</v>
+        <v>50.42096801894371</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.69484903009396</v>
+        <v>37.36835423249775</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.04100135461304</v>
+        <v>47.26853920265251</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.40879332101943</v>
+        <v>57.95583824742214</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.12414264721615</v>
+        <v>64.82185792957226</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.98148722346022</v>
+        <v>48.69529657625977</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.98171922334022</v>
+        <v>42.00553154924138</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.39764411454226</v>
+        <v>47.54352523711137</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.97658461622693</v>
+        <v>34.11188393287397</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.34724316667781</v>
+        <v>46.52554207600924</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.70199906738769</v>
+        <v>57.09073246147179</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>46.42223149480812</v>
+        <v>64.02918265388878</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.27274790567127</v>
+        <v>47.20462471507487</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.08758104521867</v>
+        <v>36.2870971805536</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.4874299522918</v>
+        <v>41.14322888861346</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.09597710313615</v>
+        <v>29.75598724654061</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.40807883457926</v>
+        <v>47.29296872961131</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>40.79982910240335</v>
+        <v>53.69075224034805</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.50416389843298</v>
+        <v>59.82031695542633</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>33.38346800104593</v>
+        <v>43.56915121643615</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.32900764143023</v>
+        <v>30.22893132275259</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.21747524949771</v>
+        <v>26.74577530830244</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>42.71905259024769</v>
+        <v>29.47789232227247</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.19217014472131</v>
+        <v>19.60307215988372</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>39.39793120074162</v>
+        <v>20.14720899646858</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.89894317855281</v>
+        <v>41.24760115757685</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.73230840479681</v>
+        <v>43.9966127297117</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>44.27647634540543</v>
+        <v>49.34431790015009</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.65954371719034</v>
+        <v>35.38636737928014</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.98931620187211</v>
+        <v>39.96277556544594</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.20909655684756</v>
+        <v>40.9675346335557</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.03079086722184</v>
+        <v>42.62160707732991</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>44.58036331615357</v>
+        <v>47.92128481390673</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.95567102487217</v>
+        <v>32.45073795716704</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.30347990125493</v>
+        <v>39.36281403134593</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.216043338923</v>
+        <v>41.8270447744104</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>39.07462437643581</v>
+        <v>38.31097347848475</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>43.6066399143021</v>
+        <v>42.88183476791726</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.0145879131607</v>
+        <v>28.6396260985399</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>40.30425524478886</v>
+        <v>38.6677744478013</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>42.8384909694545</v>
+        <v>23.67969726019062</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>47.60091162405568</v>
+        <v>26.62110007805451</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.0845684432491</v>
+        <v>16.61297121716516</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>45.85962982426064</v>
+        <v>24.47122453676445</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.82508908325418</v>
+        <v>30.0080095625089</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>54.88468390304978</v>
+        <v>33.1577666891915</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>41.66346711975328</v>
+        <v>20.89660702623217</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>44.37415967820488</v>
+        <v>48.54096497873847</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.17964205511735</v>
+        <v>54.81993867109848</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.57369669180457</v>
+        <v>41.08280730044957</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.49317060552862</v>
+        <v>47.77909911568352</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>51.401943799704</v>
+        <v>60.69532224559205</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.50526861681593</v>
+        <v>67.93232044422659</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.19336245122982</v>
+        <v>52.03054232482484</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.67585965358489</v>
+        <v>46.809047671943</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.4865868009949</v>
+        <v>53.11285719580128</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.87315550402477</v>
+        <v>38.71229008599046</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.81926068947308</v>
+        <v>48.49156672596729</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>51.71432883025405</v>
+        <v>61.13652127824392</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>56.82293002425679</v>
+        <v>68.62600381660916</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.50345960058257</v>
+        <v>51.74057579061689</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>43.71480747036637</v>
+        <v>40.92629001637018</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>48.50815414728916</v>
+        <v>46.47499178185442</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.92717874802864</v>
+        <v>33.910796078514</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>46.8106713302716</v>
+        <v>50.32444308734685</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>50.74517939507419</v>
+        <v>57.67015710600413</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>55.83655341378419</v>
+        <v>64.22196265706833</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>42.54868046642217</v>
+        <v>47.51351329685208</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>62.74739654460741</v>
+        <v>33.26373525885339</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>63.90813748521291</v>
+        <v>27.37240201562383</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>68.76031101622446</v>
+        <v>29.21736582930385</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.31668656032294</v>
+        <v>21.34502891499187</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>67.58295800917786</v>
+        <v>30.03146131378902</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>64.55649079836759</v>
+        <v>45.2762655683961</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>65.65236127170135</v>
+        <v>45.34083615997017</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>70.55207695216539</v>
+        <v>49.68421097397542</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>56.006758878255</v>
+        <v>37.8054581284421</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>69.41537289320797</v>
+        <v>49.2848901458889</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>64.88529263417074</v>
+        <v>46.9079145731135</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>65.96932725187582</v>
+        <v>45.90822255595883</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>70.87525212488771</v>
+        <v>50.24863162516416</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>56.32149582262195</v>
+        <v>36.83442822218416</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>69.74820109698913</v>
+        <v>50.05464990152154</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>63.79502679877037</v>
+        <v>47.50452330130548</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>64.91863356394539</v>
+        <v>41.57457454036631</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>69.80466617501551</v>
+        <v>45.28230949518925</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.28725592505356</v>
+        <v>33.01045348735152</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>68.65202078115138</v>
+        <v>50.07690061303882</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>69.35005569257156</v>
+        <v>27.30369966689309</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>74.51848133327444</v>
+        <v>29.24880381804542</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>60.05113613183055</v>
+        <v>21.01944534559391</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>74.68175715491118</v>
+        <v>32.90533428573685</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>77.07872659123325</v>
+        <v>32.70354693433197</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>82.60321063506879</v>
+        <v>34.71681528179527</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>67.30802594873053</v>
+        <v>24.36163865054295</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>71.11695575256958</v>
+        <v>51.37579266836629</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>76.33348207527217</v>
+        <v>56.47056126788343</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>61.76494775401001</v>
+        <v>44.65338834936384</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>76.56476787802985</v>
+        <v>56.49417676753466</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>78.89498440213667</v>
+        <v>63.40473913151022</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>84.46838832360807</v>
+        <v>69.26797136680644</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>69.07063473657772</v>
+        <v>55.40286330960122</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>71.43708057141701</v>
+        <v>51.1049121715784</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>76.65961843981056</v>
+        <v>56.25974086724231</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.08298275001005</v>
+        <v>43.7332801671779</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>76.91199903096916</v>
+        <v>58.50117549596636</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>79.22802706569702</v>
+        <v>65.17434316606506</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>84.80748040186471</v>
+        <v>71.30120675147781</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>69.40151774890785</v>
+        <v>56.41566365153159</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>70.38185956494628</v>
+        <v>46.25282119573879</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>75.58472700521455</v>
+        <v>50.78495522346329</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>61.04416168875541</v>
+        <v>39.91774334453201</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>75.80306832383101</v>
+        <v>59.49702192969806</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>78.16163789901438</v>
+        <v>61.11890969551554</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>83.72159448199497</v>
+        <v>66.43364223431053</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>68.35076785463403</v>
+        <v>51.62861344819132</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.20700890046995</v>
+        <v>23.86220898204098</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.39268599898901</v>
+        <v>24.05759598519843</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.8473998872628</v>
+        <v>26.85958371323445</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.51694423272362</v>
+        <v>16.43388032295003</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.11261663039788</v>
+        <v>16.16793572896271</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.75761453577648</v>
+        <v>39.46696812018044</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.88914334047216</v>
+        <v>44.78643904606546</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.38616068769095</v>
+        <v>50.21820559125035</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.96680953768519</v>
+        <v>35.2625668221208</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.6834731334849</v>
+        <v>38.4011792757</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.06746830686708</v>
+        <v>39.19254511091886</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.18727830039096</v>
+        <v>43.37207087651531</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>40.68965272698416</v>
+        <v>48.67474716733582</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.26268672094304</v>
+        <v>32.30280379865782</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.99705006083258</v>
+        <v>37.42875258889327</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.07663190772107</v>
+        <v>36.09382081345979</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.23342767370492</v>
+        <v>35.99326260809392</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.71829957228587</v>
+        <v>40.39948611800402</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.3236916817631</v>
+        <v>25.87051777044411</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.00042751333348</v>
+        <v>32.15643595939162</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.80580646035541</v>
+        <v>18.71128472197059</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>43.51331451092295</v>
+        <v>21.29134070285578</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.2016014942403</v>
+        <v>11.89291696064845</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.10656314869994</v>
+        <v>20.64335557644549</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>46.31756991862579</v>
+        <v>25.20928319580196</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>51.33525773590875</v>
+        <v>27.89129281198673</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.29259551549174</v>
+        <v>16.30943146277071</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.32189644447459</v>
+        <v>44.83323810747585</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.07215098336997</v>
+        <v>50.6942166346311</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.6720101500685</v>
+        <v>37.18170090319393</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.72136975377028</v>
+        <v>46.52881173605449</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.87659465073539</v>
+        <v>57.31297594621957</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.93769812473594</v>
+        <v>64.02039022347253</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>39.80544268166359</v>
+        <v>48.25600168051184</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.62301084457825</v>
+        <v>42.71801428233399</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.3784578339249</v>
+        <v>48.50292052431042</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>32.97097095185589</v>
+        <v>34.40752771272328</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.04657364848615</v>
+        <v>46.61768677710759</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>48.18809550181452</v>
+        <v>57.18117281038018</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.25441446202004</v>
+        <v>64.0376642854071</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.11475340544312</v>
+        <v>47.37481593602236</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.66457707647699</v>
+        <v>33.18788583297141</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.40269856797843</v>
+        <v>38.03040378459599</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.02738028015508</v>
+        <v>26.38311736890237</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>43.04030304526599</v>
+        <v>43.49045262862322</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>47.22131568824292</v>
+        <v>49.80153064769095</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.27048653640139</v>
+        <v>55.54913935212947</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.16214790456559</v>
+        <v>39.8787745377799</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.97482346973037</v>
+        <v>8.648232908372789</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.44646367911933</v>
+        <v>9.106722028078277</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.33827400322223</v>
+        <v>9.462075465733506</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.44192064018265</v>
+        <v>5.326088694166408</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.29983546022895</v>
+        <v>14.12596488014837</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.41900548058442</v>
+        <v>17.82777664993661</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.84010800286072</v>
+        <v>23.33012187523194</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.77109179020382</v>
+        <v>25.93416296571176</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.79173060310335</v>
+        <v>18.10242417378143</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.76439637718381</v>
+        <v>34.39164003777595</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.7154755668239</v>
+        <v>16.89506005009495</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.12521608166488</v>
+        <v>21.35102032334235</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.06133966028331</v>
+        <v>23.82113005185528</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.07434601615282</v>
+        <v>14.7510727640049</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.06404680856686</v>
+        <v>33.14809296157338</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.77623178703904</v>
+        <v>17.98955464618858</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.22117191028102</v>
+        <v>18.05761356237236</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.14069758014925</v>
+        <v>19.83677441001917</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.18492122944799</v>
+        <v>12.03160326015613</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.11981402859765</v>
+        <v>31.38241836586703</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.23157823800773</v>
+        <v>15.89352629183172</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>35.38022220508285</v>
+        <v>17.04928190139769</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.45622589514669</v>
+        <v>10.44800716789382</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.01605681369416</v>
+        <v>18.00309107014714</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.39890347506739</v>
+        <v>21.63262117743433</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.84653490585814</v>
+        <v>23.01279997625956</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.21303071804466</v>
+        <v>14.21605147876459</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>32.64504420516727</v>
+        <v>40.18856904804854</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.83333901009019</v>
+        <v>44.37062642767036</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.8266851471875</v>
+        <v>34.20929489287347</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.52364436306287</v>
+        <v>44.30176687389708</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.85428731843969</v>
+        <v>54.01433172835839</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>44.34224165967583</v>
+        <v>59.11125734850577</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>32.62488869814901</v>
+        <v>46.6416381992241</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.93266281430698</v>
+        <v>37.93646597210118</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.12593732617273</v>
+        <v>42.03883150370822</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.11193481236352</v>
+        <v>31.42380176539403</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.83471717148198</v>
+        <v>44.80897938824116</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>40.1521527436272</v>
+        <v>54.24127861514327</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>44.64511472687197</v>
+        <v>59.47098145960085</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.92033550953964</v>
+        <v>46.18579377622429</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.0247248275009</v>
+        <v>31.65181132072063</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.20156527565262</v>
+        <v>34.92642509351129</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.2185824612601</v>
+        <v>26.22182882498812</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.88054427012117</v>
+        <v>43.03261935120479</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.23551528715986</v>
+        <v>47.87304375499473</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.71219487673567</v>
+        <v>52.11473883435274</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.01765005434842</v>
+        <v>39.30902075728744</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>62.35839347497624</v>
+        <v>18.78738052929605</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>63.55082690909416</v>
+        <v>16.06863527077878</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>68.36577707295454</v>
+        <v>17.22558270373607</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>54.0136915401233</v>
+        <v>11.19582844032062</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>67.15910433485816</v>
+        <v>14.09515914261763</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>64.16688679004292</v>
+        <v>31.8351964377639</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>65.29448621507571</v>
+        <v>34.99467724761139</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>70.15689540086983</v>
+        <v>38.63840056432547</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>55.70328253899795</v>
+        <v>28.60863115207469</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>68.99084218093445</v>
+        <v>34.4126880753826</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>64.49553520956134</v>
+        <v>34.26083876370015</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>65.6112970133558</v>
+        <v>36.30262555636054</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>70.47992400597958</v>
+        <v>39.94940344748753</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>56.01784687696995</v>
+        <v>28.37987989387221</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>69.32353493773854</v>
+        <v>35.79220586868968</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>63.40489480821694</v>
+        <v>34.47517048416365</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>64.56025915029606</v>
+        <v>31.63646295120206</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>69.40897597411538</v>
+        <v>34.64212794220604</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>54.98330984452497</v>
+        <v>24.24689935046518</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>68.22697033903566</v>
+        <v>35.23783524502538</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>68.95462443966589</v>
+        <v>13.96398495151999</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>74.08631697943001</v>
+        <v>15.21234601398383</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>59.70713672622043</v>
+        <v>8.071551159008225</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>74.28946359575151</v>
+        <v>16.07208266685868</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>76.7134317500435</v>
+        <v>18.36469605875446</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>82.20259832000139</v>
+        <v>19.68243508729782</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>66.99290598544914</v>
+        <v>10.46400077690642</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>70.72088538983839</v>
+        <v>39.04234131528084</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>75.9006011067993</v>
+        <v>43.43266779753121</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>61.42038519074285</v>
+        <v>32.68403673564166</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>76.17207885307816</v>
+        <v>41.14926766640585</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>78.52931822865105</v>
+        <v>50.5000227272064</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>84.06732904169507</v>
+        <v>55.66495208139605</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>68.75520668559921</v>
+        <v>42.88227933926321</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>71.04087692853656</v>
+        <v>39.34424607595514</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>76.22661327968301</v>
+        <v>43.79666517523313</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>61.73827024448548</v>
+        <v>32.33654237163067</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>76.51922823210106</v>
+        <v>43.78266180853493</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>78.86227859797003</v>
+        <v>52.84815145552516</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>84.40634825175772</v>
+        <v>58.27968715526855</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>69.08598758796334</v>
+        <v>44.46121458451668</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>69.98529543053115</v>
+        <v>33.95827791249872</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>75.15134054582245</v>
+        <v>37.76608184395108</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>60.69913519020899</v>
+        <v>28.01104663016294</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>75.40978917212053</v>
+        <v>43.91841853352125</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>77.79541143315654</v>
+        <v>47.95278548541849</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>83.31996544893569</v>
+        <v>52.54686164782585</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>68.03481084131525</v>
+        <v>38.86756873140018</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.42052533106319</v>
+        <v>34.75297738582147</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.53643812362725</v>
+        <v>33.78620414072265</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.65948318023902</v>
+        <v>36.65197524168519</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.27594136439441</v>
+        <v>26.53697639071409</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.09746392141211</v>
+        <v>24.15555415194097</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.85498148283596</v>
+        <v>43.5540836306982</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>32.92136393054685</v>
+        <v>48.27584478391748</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.08373164664336</v>
+        <v>53.35299733302612</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.61747974748165</v>
+        <v>39.71411359834444</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.55164163604435</v>
+        <v>40.09371062120648</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>30.14609039023501</v>
+        <v>42.65646117591592</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.2015360084466</v>
+        <v>46.38895295628789</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>37.36893618147742</v>
+        <v>51.37135731110466</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.8953731694958</v>
+        <v>36.31453777544034</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>33.84673342479237</v>
+        <v>39.58709651321357</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.22205941756643</v>
+        <v>42.96507656119849</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.31157319675779</v>
+        <v>41.82186986832731</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.46271692775937</v>
+        <v>46.31251689837592</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.01931810665194</v>
+        <v>32.00139328099593</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>32.91699931444654</v>
+        <v>39.91845916744875</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.71231328158323</v>
+        <v>27.50802845030702</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>40.07985973566144</v>
+        <v>30.48394763919277</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.7023195460642</v>
+        <v>21.16284702492606</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>38.25651185051746</v>
+        <v>26.05765212617764</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.35291620226057</v>
+        <v>31.06400501842298</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>46.9983922255115</v>
+        <v>34.08096837633259</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.9599536912425</v>
+        <v>22.49659540719678</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>37.11633107966679</v>
+        <v>47.76303218963235</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.52363487255906</v>
+        <v>53.62732697734427</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>30.06379970446669</v>
+        <v>41.02590601069356</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>39.75094866301826</v>
+        <v>47.15735856827838</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>43.79622109950726</v>
+        <v>58.49598090228034</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>48.4820761803131</v>
+        <v>65.10566823683922</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>36.3602996995706</v>
+        <v>50.25835534566738</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>37.3997445999762</v>
+        <v>46.20212454753577</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>41.81193209593484</v>
+        <v>52.04699941603334</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>30.3450397582417</v>
+        <v>38.78242430620455</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>40.05714593760524</v>
+        <v>48.30664605914078</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>44.08957946123867</v>
+        <v>59.37382205941449</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>48.78034739592179</v>
+        <v>66.18687880668911</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>36.65144858622649</v>
+        <v>50.33866698596542</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>36.50528092504506</v>
+        <v>41.79111918772108</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>40.9013807816451</v>
+        <v>47.1251955159911</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.46447045234031</v>
+        <v>35.18678997214039</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>39.11816754213234</v>
+        <v>49.09691651860635</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>43.18709096183159</v>
+        <v>55.44179105520062</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>47.86191771342455</v>
+        <v>61.58622216635169</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>35.76221758067427</v>
+        <v>45.56218860316478</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>28.23067286236949</v>
+        <v>22.76305134620153</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>31.58181909648426</v>
+        <v>22.37812377637173</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>36.00586548529519</v>
+        <v>25.22606794450668</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.85505701759826</v>
+        <v>14.82503286545187</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>32.18209632775429</v>
+        <v>17.69347094156177</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.76133269628594</v>
+        <v>39.1736347196417</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>33.05909640831003</v>
+        <v>43.7111516089722</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>37.52507202378409</v>
+        <v>49.22013016226607</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>25.28615172099622</v>
+        <v>34.29914353416407</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>33.73285498886042</v>
+        <v>39.58494416403612</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>30.07038566907492</v>
+        <v>39.4472724201244</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>33.35638930741138</v>
+        <v>42.83825339620263</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>37.82766819260152</v>
+        <v>48.23558699315299</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>25.58110630030013</v>
+        <v>31.88637173755346</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>34.04556101320659</v>
+        <v>38.90995297790536</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.08649854004288</v>
+        <v>36.44420931738235</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>32.4093283611374</v>
+        <v>35.72159057516622</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>36.8632667526854</v>
+        <v>40.21884670280019</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>24.64890353870297</v>
+        <v>25.65843897656442</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>33.05606605981144</v>
+        <v>34.30213155471002</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>36.0355151648276</v>
+        <v>20.53750098652183</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>40.70971847438135</v>
+        <v>23.27727990244636</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>28.57426469408033</v>
+        <v>13.94014613341298</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>38.86640530910386</v>
+        <v>19.67886884503568</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>43.23016870387936</v>
+        <v>23.92739152348947</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>48.20299903913044</v>
+        <v>26.55543703693932</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>35.36083339198505</v>
+        <v>15.01163527422352</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>37.53227196954096</v>
+        <v>46.23128728279799</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>42.24883681225761</v>
+        <v>52.26347988065875</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>30.02574027381079</v>
+        <v>38.81462816949434</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>40.45986285331327</v>
+        <v>45.83590570004942</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>44.76863795245345</v>
+        <v>56.141053285078</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>49.78447568761625</v>
+        <v>62.7953875831811</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>36.85355381660918</v>
+        <v>47.07562702339631</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>37.8324801444589</v>
+        <v>44.43358460945505</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>42.55418587960812</v>
+        <v>50.40592308805296</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>30.3237179339962</v>
+        <v>36.3570880618619</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.78406811656075</v>
+        <v>46.13396654852001</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>45.07912940985236</v>
+        <v>56.21159779728221</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>50.1001295504982</v>
+        <v>63.02446881924357</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>37.16177698867052</v>
+        <v>46.39531122179854</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>36.88101134958655</v>
+        <v>35.69424496499728</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>41.58555637472398</v>
+        <v>40.7380576688666</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.38709147926585</v>
+        <v>29.09226239827985</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>39.78505288856422</v>
+        <v>42.67834105309674</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>44.11940886674343</v>
+        <v>48.62997883738644</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>49.12341648388866</v>
+        <v>54.33304561017618</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.21623553598702</v>
+        <v>38.65777313476624</v>
       </c>
     </row>
   </sheetData>
